--- a/data/trans_bre/P54_A_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -609,12 +609,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>2,03%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 7,14</t>
+          <t>-4,07; 7,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 5,33</t>
+          <t>-1,72; 5,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,52</t>
+          <t>-0,19; 5,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 19,01</t>
+          <t>-9,26; 18,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 6,01</t>
+          <t>-1,88; 5,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 4,88</t>
+          <t>-0,2; 5,49</t>
         </is>
       </c>
     </row>
@@ -689,12 +689,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,83%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 7,41</t>
+          <t>-4,75; 7,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 10,51</t>
+          <t>-0,05; 10,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 9,9</t>
+          <t>1,71; 9,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 22,26</t>
+          <t>-12,85; 22,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 12,61</t>
+          <t>-0,01; 12,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 11,6</t>
+          <t>1,82; 11,14</t>
         </is>
       </c>
     </row>
@@ -769,27 +769,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>-0,31%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 15,91</t>
+          <t>-6,37; 15,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 19,07</t>
+          <t>-3,46; 20,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 4,51</t>
+          <t>-5,07; 4,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 63,53</t>
+          <t>-17,07; 60,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 25,48</t>
+          <t>-3,57; 26,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 4,84</t>
+          <t>-5,21; 4,88</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 5,86</t>
+          <t>-1,85; 5,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 6,01</t>
+          <t>0,49; 6,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,89</t>
+          <t>1,1; 5,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 16,43</t>
+          <t>-4,41; 16,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,88</t>
+          <t>0,53; 7,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,34</t>
+          <t>1,17; 5,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,07%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,05%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,03%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.671418539644259</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.006755609313116</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.735650896551078</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.04074751440660838</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.02216966719881386</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.01831693256003931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,07; 7,32</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 5,28</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 5,06</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-9,26; 18,86</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,88; 5,92</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 5,49</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.065807125119736</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.42661970227731</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5121568257536079</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.09260643587605051</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.01531066169484466</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.005121390205314338</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.32147632193125</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.310578990897922</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.921532388800617</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1886061804840697</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.06020979489499625</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.05341369981554637</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,18</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,28</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,55%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 7,1</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,05; 10,04</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 9,81</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,85; 22,71</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 12,02</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 11,14</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.278001586502953</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.283005279753416</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.33219384039344</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.03553268112987261</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.04787983066578728</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.05887680805009128</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,77</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,62</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>14,69%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,14%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,31%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.746334413752158</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.001483450139944082</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.789305639555111</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1285042806612957</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>1.587351737076058e-05</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.01917893634295529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,37; 15,72</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 20,04</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; 4,55</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-17,07; 60,31</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 26,89</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-5,21; 4,88</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.099137107134393</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.974220015209122</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.877754158274884</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.2270934795421082</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.11640570417183</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1125099826387286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +775,161 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,07</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,11%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,42%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,25%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.767351100515066</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.062021595039388</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.3925647655212527</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1468673662412585</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.03345963460763446</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.004108750523671757</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 5,95</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 6,26</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 5,19</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,41; 16,56</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 7,18</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 5,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.367214353103355</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.360304768576712</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.087791848913146</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1707029518997008</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.04441928717252194</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.05207736302021405</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.71683592354902</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.8172059308534</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.568099460033518</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.6030516446904404</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2554281979792322</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.04895350721123026</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.940007541727301</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.003844389680477</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.943587584366048</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.05105260084334443</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.03329492418313493</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.03159313755086003</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.853543741734131</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.2032933226679735</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.023779148766575</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.04406328879883641</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.002175661144914193</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.01098849484466196</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.946954895083499</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.262394161203261</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.049831859454251</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.1655983356189174</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.07200637040787618</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.05529635354572034</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -921,12 +938,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
